--- a/Data/Combat Extended/Combat Extended Armory - 2911110083/1.5/2911110083.xlsx
+++ b/Data/Combat Extended/Combat Extended Armory - 2911110083/1.5/2911110083.xlsx
@@ -34,6 +34,18 @@
     <x:t>Korean (한국어) [Translation]</x:t>
   </x:si>
   <x:si>
+    <x:t>CombatExtended.AmmoSetDef+AmmoSet_ArmoryLaserCarbine.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CombatExtended.AmmoSetDef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AmmoSet_ArmoryLaserCarbine.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저 광선</x:t>
+  </x:si>
+  <x:si>
     <x:t>RecipeDef+MakeSatchelCharge.label</x:t>
   </x:si>
   <x:si>
@@ -529,6 +541,15 @@
     <x:t>SPG-9 무반동포</x:t>
   </x:si>
   <x:si>
+    <x:t>ThingDef+Gun_SPGNine.description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gun_SPGNine.description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼각대에 거치된 SPG-9 무반동포입니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>ThingDef+Gun_SPGNine.verbs.Verb_ShootCE.label</x:t>
   </x:si>
   <x:si>
@@ -736,7 +757,7 @@
     <x:t>CE_Gun_AKTwelve.label</x:t>
   </x:si>
   <x:si>
-    <x:t>AK-12 돌격 소총</x:t>
+    <x:t>AK-12 돌격소총</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_AKTwelve.description</x:t>
@@ -745,7 +766,7 @@
     <x:t>CE_Gun_AKTwelve.description</x:t>
   </x:si>
   <x:si>
-    <x:t>대량의 장탄수가 특징적인 고대의 돌격 소총입니다.</x:t>
+    <x:t>대량의 장탄수가 특징적인 고대의 돌격소총입니다.</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_AKTwelve.verbs.Verb_ShootCE.label</x:t>
@@ -787,7 +808,7 @@
     <x:t>CE_Gun_AK74GL.label</x:t>
   </x:si>
   <x:si>
-    <x:t>AK-74 돌격 소총 + GP-25</x:t>
+    <x:t>AK-74 돌격소총 + GP-25</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_AK74GL.description</x:t>
@@ -829,7 +850,7 @@
     <x:t>CE_Gun_AKSSeventyFourU.label</x:t>
   </x:si>
   <x:si>
-    <x:t>AKS-74U 돌격 소총</x:t>
+    <x:t>AKS-74U 돌격소총</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_AKSSeventyFourU.description</x:t>
@@ -922,7 +943,7 @@
     <x:t>CE_ATFour.description</x:t>
   </x:si>
   <x:si>
-    <x:t>대전차용 무반동포로, 강선이 없고, 사람이 휴대할 수 있으며, 어깨에 지고 쏘는 일회용 무기입니다. 역사상 가장 흔히 쓰이는 경량형 대전차병기로 간주됩니다.</x:t>
+    <x:t>강선이 없는 대전차용 무반동포로, 사람이 휴대할 수 있는 어깨견착형 일회용 무기입니다. 역사상 가장 흔히 쓰이는 경량형 대전차병기로 간주됩니다.</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_ATFour.tools.Body.label</x:t>
@@ -961,7 +982,7 @@
     <x:t>CE_Gun_AVB.label</x:t>
   </x:si>
   <x:si>
-    <x:t>AVB-7.62 돌격 소총</x:t>
+    <x:t>AVB-7.62 돌격소총</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_AVB.description</x:t>
@@ -970,7 +991,7 @@
     <x:t>CE_Gun_AVB.description</x:t>
   </x:si>
   <x:si>
-    <x:t>최대장약 소총탄을 발사하는 고대의 돌격 소총입니다. 눈에 띄게 줄어든 반동이 특징적입니다.</x:t>
+    <x:t>최대장약 소총탄을 발사하는 고대의 돌격소총입니다. 눈에 띄게 줄어든 반동이 특징적입니다.</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_AVB.verbs.Verb_ShootCE.label</x:t>
@@ -1012,7 +1033,7 @@
     <x:t>CE_Gun_BAR.description</x:t>
   </x:si>
   <x:si>
-    <x:t>최대장약 소총탄을 발사하는 전자동 돌격 소총입니다. 경기관총이라기에는 가볍고, 돌격 소총이라기에는 무거운 편입니다.</x:t>
+    <x:t>최대장약 소총탄을 발사하는 전자동 돌격소총입니다. 경기관총이라기에는 가볍고, 돌격소총이라기에는 무거운 편입니다.</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_BAR.verbs.Verb_ShootCE.label</x:t>
@@ -1207,7 +1228,7 @@
     <x:t>CE_Gun_FightLiteMCR.description</x:t>
   </x:si>
   <x:si>
-    <x:t>벨트로 급탄되는 경량형 분대자동화기로, 일반적인 돌격 소총과 경기관총의 사이에 위치합니다.</x:t>
+    <x:t>벨트로 급탄되는 경량형 분대자동화기로, 일반적인 돌격소총과 경기관총의 사이에 위치합니다.</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_FightLiteMCR.verbs.Verb_ShootCE.label</x:t>
@@ -1594,6 +1615,60 @@
     <x:t>CE_Gun_KSTwentyThree.tools.muzzle.label</x:t>
   </x:si>
   <x:si>
+    <x:t>ThingDef+CE_Gun_LaserCarbine.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CE_Gun_LaserCarbine.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAS-40C 레이저 돌격소총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThingDef+CE_Gun_LaserCarbine.description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CE_Gun_LaserCarbine.description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펄스 레이저를 사용하는 돌격 카빈입니다. 집중 렌즈가 사용된 덕분에 근거리 교전에서 특히나 유효합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThingDef+CE_Gun_LaserCarbine.verbs.Verb_ShootCE.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CE_Gun_LaserCarbine.verbs.Verb_ShootCE.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAS-40C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThingDef+CE_Gun_LaserCarbine.tools.0.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CE_Gun_LaserCarbine.tools.0.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThingDef+CE_Gun_LaserCarbine.tools.1.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CE_Gun_LaserCarbine.tools.1.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>barrel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThingDef+CE_Gun_LaserCarbine.tools.2.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CE_Gun_LaserCarbine.tools.2.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>muzzle</x:t>
+  </x:si>
+  <x:si>
     <x:t>ThingDef+CE_Gun_Lewis.label</x:t>
   </x:si>
   <x:si>
@@ -1735,7 +1810,7 @@
     <x:t>CE_Gun_M1Garand.description</x:t>
   </x:si>
   <x:si>
-    <x:t>최대장약 소총탄을 발사하는 고대의 반자동 돌격 소총입니다. 강력한 위력과 단순한 설계 덕분에 현재까지도 사용되고 있습니다.</x:t>
+    <x:t>최대장약 소총탄을 발사하는 고대의 반자동 돌격소총입니다. 강력한 위력과 단순한 설계 덕분에 현재까지도 사용되고 있습니다.</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_M1Garand.verbs.Verb_ShootCE.label</x:t>
@@ -1810,7 +1885,7 @@
     <x:t>CE_Gun_MSeven.label</x:t>
   </x:si>
   <x:si>
-    <x:t>M7 돌격 소총</x:t>
+    <x:t>M7 돌격소총</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_MSeven.description</x:t>
@@ -1819,7 +1894,7 @@
     <x:t>CE_Gun_MSeven.description</x:t>
   </x:si>
   <x:si>
-    <x:t>최대장약 소총탄을 발사하는 고대의 군용 돌격 소총입니다.</x:t>
+    <x:t>최대장약 소총탄을 발사하는 고대의 군용 돌격소총입니다.</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_MSeven.verbs.Verb_ShootCE.label</x:t>
@@ -2380,7 +2455,7 @@
     <x:t>CE_Gun_TavorSeven.label</x:t>
   </x:si>
   <x:si>
-    <x:t>Tavor 7 돌격 소총</x:t>
+    <x:t>Tavor 7 돌격소총</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_TavorSeven.description</x:t>
@@ -2389,7 +2464,7 @@
     <x:t>CE_Gun_TavorSeven.description</x:t>
   </x:si>
   <x:si>
-    <x:t>고대에 설계된 돌격 소총입니다. 불펍 설계로 휴대성과 조작성을 개선했습니다.</x:t>
+    <x:t>고대에 설계된 돌격소총입니다. 불펍 설계로 휴대성과 조작성을 개선했습니다.</x:t>
   </x:si>
   <x:si>
     <x:t>ThingDef+CE_Gun_TavorSeven.verbs.Verb_ShootCE.label</x:t>
@@ -2798,6 +2873,12 @@
   </x:si>
   <x:si>
     <x:t>고리버들로 만든 가벼운 방패로, 고대 페르시아 제국의 보병이 사용했다는 기록이 있습니다. 화살을 비롯한 투사체를 막기에는 효과적이지만, 창이나 검 등의 찌르기를 막을 수 있을 정도로는 튼튼하지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThingDef+Bullet_Laser_ArmoryLaserCarbine.label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bullet_Laser_ArmoryLaserCarbine.label</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3162,7 +3243,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F376"/>
+  <x:dimension ref="A1:F385"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3211,77 +3292,77 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>27</x:v>
@@ -3295,5151 +3376,5277 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="A42" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="A46" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="A47" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
       <x:c r="A48" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
       <x:c r="A49" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
       <x:c r="A50" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F50" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="A51" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F51" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6">
       <x:c r="A52" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F52" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:6">
       <x:c r="A53" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F53" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:6">
       <x:c r="A54" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:6">
       <x:c r="A55" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:6">
       <x:c r="A56" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:6">
       <x:c r="A57" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:6">
       <x:c r="A58" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:6">
       <x:c r="A59" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:6">
       <x:c r="A60" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:6">
       <x:c r="A61" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:6">
       <x:c r="A62" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:6">
       <x:c r="A63" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:6">
       <x:c r="A64" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:6">
       <x:c r="A65" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:6">
       <x:c r="A66" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:6">
       <x:c r="A67" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:6">
       <x:c r="A68" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F68" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:6">
       <x:c r="A69" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F69" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:6">
       <x:c r="A70" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F70" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:6">
       <x:c r="A71" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C71" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F71" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:6">
       <x:c r="A72" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C72" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F72" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:6">
       <x:c r="A73" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F73" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:6">
       <x:c r="A74" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F74" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:6">
       <x:c r="A75" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F75" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:6">
       <x:c r="A76" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C76" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F76" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:6">
       <x:c r="A77" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C77" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F77" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:6">
       <x:c r="A78" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C78" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F78" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:6">
       <x:c r="A79" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B79" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C79" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F79" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:6">
       <x:c r="A80" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C80" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F80" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:6">
       <x:c r="A81" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B81" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C81" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:6">
       <x:c r="A82" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B82" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C82" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F82" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:6">
       <x:c r="A83" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B83" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C83" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="F83" s="1" t="s">
         <x:v>220</x:v>
-      </x:c>
-      <x:c r="F83" s="1" t="s">
-        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:6">
       <x:c r="A84" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B84" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C84" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F84" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:6">
       <x:c r="A85" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B85" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C85" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F85" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:6">
       <x:c r="A86" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B86" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C86" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F86" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:6">
       <x:c r="A87" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B87" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C87" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F87" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:6">
       <x:c r="A88" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B88" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C88" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F88" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:6">
       <x:c r="A89" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B89" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C89" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F89" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:6">
       <x:c r="A90" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B90" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C90" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F90" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:6">
       <x:c r="A91" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B91" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C91" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F91" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:6">
       <x:c r="A92" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B92" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C92" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F92" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:6">
       <x:c r="A93" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B93" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C93" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="F93" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:6">
       <x:c r="A94" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B94" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C94" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F94" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:6">
       <x:c r="A95" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B95" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C95" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F95" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:6">
       <x:c r="A96" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B96" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C96" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F96" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:6">
       <x:c r="A97" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B97" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C97" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F97" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:6">
       <x:c r="A98" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B98" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C98" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F98" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:6">
       <x:c r="A99" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B99" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C99" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F99" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:6">
       <x:c r="A100" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B100" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C100" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F100" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:6">
       <x:c r="A101" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B101" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C101" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F101" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:6">
       <x:c r="A102" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B102" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C102" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F102" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:6">
       <x:c r="A103" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B103" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C103" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="F103" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:6">
       <x:c r="A104" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B104" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C104" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F104" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:6">
       <x:c r="A105" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B105" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C105" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="F105" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:6">
       <x:c r="A106" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B106" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C106" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F106" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:6">
       <x:c r="A107" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B107" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C107" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F107" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:6">
       <x:c r="A108" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B108" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C108" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F108" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:6">
       <x:c r="A109" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B109" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C109" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F109" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:6">
       <x:c r="A110" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B110" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C110" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="F110" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:6">
       <x:c r="A111" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B111" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C111" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="F111" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:6">
       <x:c r="A112" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B112" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C112" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="F112" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:6">
       <x:c r="A113" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B113" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C113" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="F113" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:6">
       <x:c r="A114" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B114" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C114" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F114" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:6">
       <x:c r="A115" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B115" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C115" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F115" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:6">
       <x:c r="A116" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B116" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C116" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F116" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:6">
       <x:c r="A117" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B117" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C117" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F117" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:6">
       <x:c r="A118" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B118" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C118" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="F118" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:6">
       <x:c r="A119" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B119" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C119" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F119" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:6">
       <x:c r="A120" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B120" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C120" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="F120" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:6">
       <x:c r="A121" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B121" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C121" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="F121" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:6">
       <x:c r="A122" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B122" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C122" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F122" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:6">
       <x:c r="A123" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B123" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C123" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F123" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:6">
       <x:c r="A124" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B124" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C124" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="F124" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:6">
       <x:c r="A125" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B125" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C125" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="F125" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:6">
       <x:c r="A126" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B126" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C126" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="F126" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:6">
       <x:c r="A127" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B127" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C127" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F127" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:6">
       <x:c r="A128" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B128" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C128" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:6">
       <x:c r="A129" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B129" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C129" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F129" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:6">
       <x:c r="A130" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B130" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C130" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="F130" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:6">
       <x:c r="A131" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B131" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C131" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="F131" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:6">
       <x:c r="A132" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B132" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C132" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="F132" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:6">
       <x:c r="A133" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B133" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C133" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="F133" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:6">
       <x:c r="A134" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B134" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C134" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="F134" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:6">
       <x:c r="A135" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B135" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C135" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="F135" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:6">
       <x:c r="A136" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B136" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C136" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F136" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:6">
       <x:c r="A137" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="B137" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C137" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="F137" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:6">
       <x:c r="A138" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B138" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C138" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="F138" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:6">
       <x:c r="A139" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B139" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C139" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F139" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:6">
       <x:c r="A140" s="1" t="s">
-        <x:v>358</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B140" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C140" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="F140" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:6">
       <x:c r="A141" s="1" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B141" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C141" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="F141" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:6">
       <x:c r="A142" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B142" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C142" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F142" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:6">
       <x:c r="A143" s="1" t="s">
-        <x:v>365</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B143" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C143" s="1" t="s">
-        <x:v>366</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F143" s="1" t="s">
-        <x:v>367</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:6">
       <x:c r="A144" s="1" t="s">
-        <x:v>368</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B144" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C144" s="1" t="s">
-        <x:v>369</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="F144" s="1" t="s">
-        <x:v>370</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:6">
       <x:c r="A145" s="1" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B145" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C145" s="1" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F145" s="1" t="s">
-        <x:v>367</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:6">
       <x:c r="A146" s="1" t="s">
-        <x:v>373</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B146" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C146" s="1" t="s">
-        <x:v>374</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F146" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:6">
       <x:c r="A147" s="1" t="s">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B147" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C147" s="1" t="s">
-        <x:v>377</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="F147" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:6">
       <x:c r="A148" s="1" t="s">
-        <x:v>378</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B148" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C148" s="1" t="s">
-        <x:v>379</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="F148" s="1" t="s">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:6">
       <x:c r="A149" s="1" t="s">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B149" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C149" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="F149" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:6">
       <x:c r="A150" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B150" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C150" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="F150" s="1" t="s">
-        <x:v>380</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:6">
       <x:c r="A151" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B151" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C151" s="1" t="s">
-        <x:v>387</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="F151" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:6">
       <x:c r="A152" s="1" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B152" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C152" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="F152" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:6">
       <x:c r="A153" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B153" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C153" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="F153" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:6">
       <x:c r="A154" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B154" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C154" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="F154" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:6">
       <x:c r="A155" s="1" t="s">
-        <x:v>395</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B155" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C155" s="1" t="s">
-        <x:v>396</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="F155" s="1" t="s">
-        <x:v>397</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:6">
       <x:c r="A156" s="1" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="B156" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C156" s="1" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="F156" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:6">
       <x:c r="A157" s="1" t="s">
-        <x:v>400</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B157" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C157" s="1" t="s">
-        <x:v>401</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="F157" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:6">
       <x:c r="A158" s="1" t="s">
-        <x:v>402</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B158" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C158" s="1" t="s">
-        <x:v>403</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="F158" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:6">
       <x:c r="A159" s="1" t="s">
-        <x:v>404</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B159" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C159" s="1" t="s">
-        <x:v>405</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="F159" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:6">
       <x:c r="A160" s="1" t="s">
-        <x:v>406</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="B160" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C160" s="1" t="s">
-        <x:v>407</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="F160" s="1" t="s">
-        <x:v>408</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:6">
       <x:c r="A161" s="1" t="s">
-        <x:v>409</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="B161" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C161" s="1" t="s">
-        <x:v>410</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="F161" s="1" t="s">
-        <x:v>411</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:6">
       <x:c r="A162" s="1" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B162" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C162" s="1" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="F162" s="1" t="s">
-        <x:v>408</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:6">
       <x:c r="A163" s="1" t="s">
-        <x:v>414</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B163" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C163" s="1" t="s">
-        <x:v>415</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="F163" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:6">
       <x:c r="A164" s="1" t="s">
-        <x:v>416</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B164" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C164" s="1" t="s">
-        <x:v>417</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="F164" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:6">
       <x:c r="A165" s="1" t="s">
-        <x:v>418</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="B165" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C165" s="1" t="s">
-        <x:v>419</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="F165" s="1" t="s">
-        <x:v>420</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:6">
       <x:c r="A166" s="1" t="s">
-        <x:v>421</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B166" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C166" s="1" t="s">
-        <x:v>422</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="F166" s="1" t="s">
-        <x:v>423</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:6">
       <x:c r="A167" s="1" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="B167" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C167" s="1" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="F167" s="1" t="s">
-        <x:v>420</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:6">
       <x:c r="A168" s="1" t="s">
-        <x:v>426</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B168" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C168" s="1" t="s">
-        <x:v>427</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="F168" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>430</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:6">
       <x:c r="A169" s="1" t="s">
-        <x:v>428</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B169" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C169" s="1" t="s">
-        <x:v>429</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="F169" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:6">
       <x:c r="A170" s="1" t="s">
-        <x:v>430</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="B170" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C170" s="1" t="s">
-        <x:v>431</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="F170" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:6">
       <x:c r="A171" s="1" t="s">
-        <x:v>432</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B171" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C171" s="1" t="s">
-        <x:v>433</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="F171" s="1" t="s">
-        <x:v>434</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:6">
       <x:c r="A172" s="1" t="s">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="B172" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C172" s="1" t="s">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="F172" s="1" t="s">
-        <x:v>437</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:6">
       <x:c r="A173" s="1" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="B173" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C173" s="1" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="F173" s="1" t="s">
-        <x:v>434</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:6">
       <x:c r="A174" s="1" t="s">
-        <x:v>440</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B174" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C174" s="1" t="s">
-        <x:v>441</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="F174" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:6">
       <x:c r="A175" s="1" t="s">
-        <x:v>442</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B175" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C175" s="1" t="s">
-        <x:v>443</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="F175" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:6">
       <x:c r="A176" s="1" t="s">
-        <x:v>444</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="B176" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C176" s="1" t="s">
-        <x:v>445</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="F176" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:6">
       <x:c r="A177" s="1" t="s">
-        <x:v>446</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B177" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C177" s="1" t="s">
-        <x:v>447</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="F177" s="1" t="s">
-        <x:v>448</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:6">
       <x:c r="A178" s="1" t="s">
-        <x:v>449</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B178" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C178" s="1" t="s">
-        <x:v>450</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="F178" s="1" t="s">
-        <x:v>451</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:6">
       <x:c r="A179" s="1" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B179" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C179" s="1" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="F179" s="1" t="s">
-        <x:v>448</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:6">
       <x:c r="A180" s="1" t="s">
-        <x:v>454</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B180" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C180" s="1" t="s">
-        <x:v>455</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="F180" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:6">
       <x:c r="A181" s="1" t="s">
-        <x:v>456</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B181" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C181" s="1" t="s">
-        <x:v>457</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="F181" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:6">
       <x:c r="A182" s="1" t="s">
-        <x:v>458</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B182" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C182" s="1" t="s">
-        <x:v>459</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="F182" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:6">
       <x:c r="A183" s="1" t="s">
-        <x:v>460</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B183" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C183" s="1" t="s">
-        <x:v>461</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="F183" s="1" t="s">
-        <x:v>462</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:6">
       <x:c r="A184" s="1" t="s">
-        <x:v>463</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B184" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C184" s="1" t="s">
-        <x:v>464</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="F184" s="1" t="s">
-        <x:v>465</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:6">
       <x:c r="A185" s="1" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B185" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C185" s="1" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F185" s="1" t="s">
-        <x:v>462</x:v>
+        <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:6">
       <x:c r="A186" s="1" t="s">
-        <x:v>468</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="B186" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C186" s="1" t="s">
-        <x:v>469</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="F186" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:6">
       <x:c r="A187" s="1" t="s">
-        <x:v>470</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B187" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C187" s="1" t="s">
-        <x:v>471</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="F187" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:6">
       <x:c r="A188" s="1" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B188" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C188" s="1" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="F188" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:6">
       <x:c r="A189" s="1" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B189" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C189" s="1" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="F189" s="1" t="s">
-        <x:v>476</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:6">
       <x:c r="A190" s="1" t="s">
-        <x:v>477</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="B190" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C190" s="1" t="s">
-        <x:v>478</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="F190" s="1" t="s">
-        <x:v>479</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:6">
       <x:c r="A191" s="1" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="B191" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C191" s="1" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="F191" s="1" t="s">
-        <x:v>476</x:v>
+        <x:v>483</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:6">
       <x:c r="A192" s="1" t="s">
-        <x:v>482</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B192" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C192" s="1" t="s">
-        <x:v>483</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="F192" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>486</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:6">
       <x:c r="A193" s="1" t="s">
-        <x:v>484</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B193" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C193" s="1" t="s">
-        <x:v>485</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="F193" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>483</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:6">
       <x:c r="A194" s="1" t="s">
-        <x:v>486</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="B194" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C194" s="1" t="s">
-        <x:v>487</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="F194" s="1" t="s">
-        <x:v>488</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:6">
       <x:c r="A195" s="1" t="s">
-        <x:v>489</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B195" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C195" s="1" t="s">
-        <x:v>490</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="F195" s="1" t="s">
-        <x:v>491</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:6">
       <x:c r="A196" s="1" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="B196" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C196" s="1" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="F196" s="1" t="s">
-        <x:v>488</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:6">
       <x:c r="A197" s="1" t="s">
-        <x:v>494</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B197" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C197" s="1" t="s">
-        <x:v>495</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="F197" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:6">
       <x:c r="A198" s="1" t="s">
-        <x:v>496</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B198" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C198" s="1" t="s">
-        <x:v>497</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="F198" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:6">
       <x:c r="A199" s="1" t="s">
-        <x:v>498</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="B199" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C199" s="1" t="s">
-        <x:v>499</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="F199" s="1" t="s">
-        <x:v>500</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:6">
       <x:c r="A200" s="1" t="s">
-        <x:v>501</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B200" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C200" s="1" t="s">
-        <x:v>502</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="F200" s="1" t="s">
-        <x:v>503</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:6">
       <x:c r="A201" s="1" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="B201" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C201" s="1" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="F201" s="1" t="s">
-        <x:v>500</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:6">
       <x:c r="A202" s="1" t="s">
-        <x:v>506</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="B202" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C202" s="1" t="s">
-        <x:v>507</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="F202" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:6">
       <x:c r="A203" s="1" t="s">
-        <x:v>508</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="B203" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C203" s="1" t="s">
-        <x:v>509</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="F203" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:6">
       <x:c r="A204" s="1" t="s">
-        <x:v>510</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="B204" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C204" s="1" t="s">
-        <x:v>511</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="F204" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:6">
       <x:c r="A205" s="1" t="s">
-        <x:v>512</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B205" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C205" s="1" t="s">
-        <x:v>513</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="F205" s="1" t="s">
-        <x:v>514</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:6">
       <x:c r="A206" s="1" t="s">
-        <x:v>515</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B206" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C206" s="1" t="s">
-        <x:v>516</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="F206" s="1" t="s">
-        <x:v>517</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:6">
       <x:c r="A207" s="1" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B207" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C207" s="1" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="F207" s="1" t="s">
-        <x:v>514</x:v>
+        <x:v>521</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:6">
       <x:c r="A208" s="1" t="s">
-        <x:v>520</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B208" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C208" s="1" t="s">
-        <x:v>521</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="F208" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>524</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:6">
       <x:c r="A209" s="1" t="s">
-        <x:v>522</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B209" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C209" s="1" t="s">
-        <x:v>523</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="F209" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>521</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:6">
       <x:c r="A210" s="1" t="s">
-        <x:v>524</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B210" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C210" s="1" t="s">
-        <x:v>525</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="F210" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:6">
       <x:c r="A211" s="1" t="s">
-        <x:v>526</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="B211" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C211" s="1" t="s">
-        <x:v>527</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="F211" s="1" t="s">
-        <x:v>528</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:6">
       <x:c r="A212" s="1" t="s">
-        <x:v>529</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B212" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C212" s="1" t="s">
-        <x:v>530</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="F212" s="1" t="s">
-        <x:v>531</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:6">
       <x:c r="A213" s="1" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="B213" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C213" s="1" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="F213" s="1" t="s">
-        <x:v>528</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:6">
       <x:c r="A214" s="1" t="s">
-        <x:v>534</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="B214" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C214" s="1" t="s">
-        <x:v>535</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="F214" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:6">
       <x:c r="A215" s="1" t="s">
-        <x:v>536</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B215" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C215" s="1" t="s">
-        <x:v>537</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="F215" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>541</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:6">
       <x:c r="A216" s="1" t="s">
-        <x:v>538</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="B216" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C216" s="1" t="s">
-        <x:v>539</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="F216" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>544</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:6">
       <x:c r="A217" s="1" t="s">
-        <x:v>540</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="B217" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C217" s="1" t="s">
-        <x:v>541</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="F217" s="1" t="s">
-        <x:v>542</x:v>
+        <x:v>547</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:6">
       <x:c r="A218" s="1" t="s">
-        <x:v>543</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="B218" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C218" s="1" t="s">
-        <x:v>544</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="F218" s="1" t="s">
-        <x:v>545</x:v>
+        <x:v>550</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:6">
       <x:c r="A219" s="1" t="s">
-        <x:v>546</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="B219" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C219" s="1" t="s">
-        <x:v>547</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="F219" s="1" t="s">
-        <x:v>542</x:v>
+        <x:v>553</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:6">
       <x:c r="A220" s="1" t="s">
-        <x:v>548</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="B220" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C220" s="1" t="s">
-        <x:v>549</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="F220" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:6">
       <x:c r="A221" s="1" t="s">
-        <x:v>550</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="B221" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C221" s="1" t="s">
-        <x:v>551</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="F221" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>553</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:6">
       <x:c r="A222" s="1" t="s">
-        <x:v>552</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="B222" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C222" s="1" t="s">
-        <x:v>553</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="F222" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:6">
       <x:c r="A223" s="1" t="s">
-        <x:v>554</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="B223" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C223" s="1" t="s">
-        <x:v>555</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="F223" s="1" t="s">
-        <x:v>556</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:6">
       <x:c r="A224" s="1" t="s">
-        <x:v>557</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="B224" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C224" s="1" t="s">
-        <x:v>558</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="F224" s="1" t="s">
-        <x:v>559</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:6">
       <x:c r="A225" s="1" t="s">
-        <x:v>560</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B225" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C225" s="1" t="s">
-        <x:v>561</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="F225" s="1" t="s">
-        <x:v>556</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:6">
       <x:c r="A226" s="1" t="s">
-        <x:v>562</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="B226" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C226" s="1" t="s">
-        <x:v>563</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="F226" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>570</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:6">
       <x:c r="A227" s="1" t="s">
-        <x:v>564</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B227" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C227" s="1" t="s">
-        <x:v>565</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="F227" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:6">
       <x:c r="A228" s="1" t="s">
-        <x:v>566</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="B228" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C228" s="1" t="s">
-        <x:v>567</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="F228" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:6">
       <x:c r="A229" s="1" t="s">
-        <x:v>568</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="B229" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C229" s="1" t="s">
-        <x:v>569</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="F229" s="1" t="s">
-        <x:v>570</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:6">
       <x:c r="A230" s="1" t="s">
-        <x:v>571</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="B230" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C230" s="1" t="s">
-        <x:v>572</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="F230" s="1" t="s">
-        <x:v>573</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:6">
       <x:c r="A231" s="1" t="s">
-        <x:v>574</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B231" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C231" s="1" t="s">
-        <x:v>575</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="F231" s="1" t="s">
-        <x:v>570</x:v>
+        <x:v>581</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:6">
       <x:c r="A232" s="1" t="s">
-        <x:v>576</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="B232" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C232" s="1" t="s">
-        <x:v>577</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="F232" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:6">
       <x:c r="A233" s="1" t="s">
-        <x:v>578</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B233" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C233" s="1" t="s">
-        <x:v>579</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="F233" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>581</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:6">
       <x:c r="A234" s="1" t="s">
-        <x:v>580</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="B234" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C234" s="1" t="s">
-        <x:v>581</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="F234" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:6">
       <x:c r="A235" s="1" t="s">
-        <x:v>582</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="B235" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C235" s="1" t="s">
-        <x:v>583</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="F235" s="1" t="s">
-        <x:v>584</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:6">
       <x:c r="A236" s="1" t="s">
-        <x:v>585</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="B236" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C236" s="1" t="s">
-        <x:v>586</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="F236" s="1" t="s">
-        <x:v>587</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:6">
       <x:c r="A237" s="1" t="s">
-        <x:v>588</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B237" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C237" s="1" t="s">
-        <x:v>589</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="F237" s="1" t="s">
-        <x:v>584</x:v>
+        <x:v>595</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:6">
       <x:c r="A238" s="1" t="s">
-        <x:v>590</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B238" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C238" s="1" t="s">
-        <x:v>591</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="F238" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>598</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:6">
       <x:c r="A239" s="1" t="s">
-        <x:v>592</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="B239" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C239" s="1" t="s">
-        <x:v>593</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="F239" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>595</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:6">
       <x:c r="A240" s="1" t="s">
-        <x:v>594</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="B240" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C240" s="1" t="s">
-        <x:v>595</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="F240" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:6">
       <x:c r="A241" s="1" t="s">
-        <x:v>596</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="B241" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C241" s="1" t="s">
-        <x:v>597</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="F241" s="1" t="s">
-        <x:v>598</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:6">
       <x:c r="A242" s="1" t="s">
-        <x:v>599</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B242" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C242" s="1" t="s">
-        <x:v>600</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="F242" s="1" t="s">
-        <x:v>601</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:6">
       <x:c r="A243" s="1" t="s">
-        <x:v>602</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="B243" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C243" s="1" t="s">
-        <x:v>603</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="F243" s="1" t="s">
-        <x:v>598</x:v>
+        <x:v>609</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:6">
       <x:c r="A244" s="1" t="s">
-        <x:v>604</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="B244" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C244" s="1" t="s">
-        <x:v>605</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="F244" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>612</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:6">
       <x:c r="A245" s="1" t="s">
-        <x:v>606</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="B245" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C245" s="1" t="s">
-        <x:v>607</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="F245" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>609</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:6">
       <x:c r="A246" s="1" t="s">
-        <x:v>608</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="B246" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C246" s="1" t="s">
-        <x:v>609</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="F246" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:6">
       <x:c r="A247" s="1" t="s">
-        <x:v>610</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="B247" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C247" s="1" t="s">
-        <x:v>611</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="F247" s="1" t="s">
-        <x:v>612</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:6">
       <x:c r="A248" s="1" t="s">
-        <x:v>613</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="B248" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C248" s="1" t="s">
-        <x:v>614</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="F248" s="1" t="s">
-        <x:v>615</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:6">
       <x:c r="A249" s="1" t="s">
-        <x:v>616</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="B249" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C249" s="1" t="s">
-        <x:v>617</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="F249" s="1" t="s">
-        <x:v>612</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:6">
       <x:c r="A250" s="1" t="s">
-        <x:v>618</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="B250" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C250" s="1" t="s">
-        <x:v>619</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="F250" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>626</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:6">
       <x:c r="A251" s="1" t="s">
-        <x:v>620</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="B251" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C251" s="1" t="s">
-        <x:v>621</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="F251" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:6">
       <x:c r="A252" s="1" t="s">
-        <x:v>622</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="B252" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C252" s="1" t="s">
-        <x:v>623</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F252" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:6">
       <x:c r="A253" s="1" t="s">
-        <x:v>624</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="B253" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C253" s="1" t="s">
-        <x:v>625</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="F253" s="1" t="s">
-        <x:v>626</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:6">
       <x:c r="A254" s="1" t="s">
-        <x:v>627</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="B254" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C254" s="1" t="s">
-        <x:v>628</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="F254" s="1" t="s">
-        <x:v>629</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:6">
       <x:c r="A255" s="1" t="s">
-        <x:v>630</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B255" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C255" s="1" t="s">
-        <x:v>631</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="F255" s="1" t="s">
-        <x:v>626</x:v>
+        <x:v>637</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:6">
       <x:c r="A256" s="1" t="s">
-        <x:v>632</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="B256" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C256" s="1" t="s">
-        <x:v>633</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F256" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:6">
       <x:c r="A257" s="1" t="s">
-        <x:v>634</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="B257" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C257" s="1" t="s">
-        <x:v>635</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="F257" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>637</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:6">
       <x:c r="A258" s="1" t="s">
-        <x:v>636</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="B258" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C258" s="1" t="s">
-        <x:v>637</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="F258" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:6">
       <x:c r="A259" s="1" t="s">
-        <x:v>638</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="B259" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C259" s="1" t="s">
-        <x:v>639</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="F259" s="1" t="s">
-        <x:v>640</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:6">
       <x:c r="A260" s="1" t="s">
-        <x:v>641</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="B260" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C260" s="1" t="s">
-        <x:v>642</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="F260" s="1" t="s">
-        <x:v>643</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:6">
       <x:c r="A261" s="1" t="s">
-        <x:v>644</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="B261" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C261" s="1" t="s">
-        <x:v>645</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="F261" s="1" t="s">
-        <x:v>640</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:6">
       <x:c r="A262" s="1" t="s">
-        <x:v>646</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="B262" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C262" s="1" t="s">
-        <x:v>647</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="F262" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>654</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:6">
       <x:c r="A263" s="1" t="s">
-        <x:v>648</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="B263" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C263" s="1" t="s">
-        <x:v>649</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="F263" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:6">
       <x:c r="A264" s="1" t="s">
-        <x:v>650</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="B264" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C264" s="1" t="s">
-        <x:v>651</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="F264" s="1" t="s">
-        <x:v>652</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:6">
       <x:c r="A265" s="1" t="s">
-        <x:v>653</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B265" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C265" s="1" t="s">
-        <x:v>654</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="F265" s="1" t="s">
-        <x:v>655</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:6">
       <x:c r="A266" s="1" t="s">
-        <x:v>656</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="B266" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C266" s="1" t="s">
-        <x:v>657</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="F266" s="1" t="s">
-        <x:v>652</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:6">
       <x:c r="A267" s="1" t="s">
-        <x:v>658</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="B267" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C267" s="1" t="s">
-        <x:v>659</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="F267" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>665</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:6">
       <x:c r="A268" s="1" t="s">
-        <x:v>660</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="B268" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C268" s="1" t="s">
-        <x:v>661</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="F268" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>668</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:6">
       <x:c r="A269" s="1" t="s">
-        <x:v>662</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="B269" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C269" s="1" t="s">
-        <x:v>663</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="F269" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>665</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:6">
       <x:c r="A270" s="1" t="s">
-        <x:v>664</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="B270" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C270" s="1" t="s">
-        <x:v>665</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="F270" s="1" t="s">
-        <x:v>666</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:6">
       <x:c r="A271" s="1" t="s">
-        <x:v>667</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B271" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C271" s="1" t="s">
-        <x:v>668</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="F271" s="1" t="s">
-        <x:v>669</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:6">
       <x:c r="A272" s="1" t="s">
-        <x:v>670</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B272" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C272" s="1" t="s">
-        <x:v>671</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="F272" s="1" t="s">
-        <x:v>666</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:6">
       <x:c r="A273" s="1" t="s">
-        <x:v>672</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="B273" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C273" s="1" t="s">
-        <x:v>673</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="F273" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>680</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:6">
       <x:c r="A274" s="1" t="s">
-        <x:v>674</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B274" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C274" s="1" t="s">
-        <x:v>675</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="F274" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:6">
       <x:c r="A275" s="1" t="s">
-        <x:v>676</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="B275" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C275" s="1" t="s">
-        <x:v>677</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="F275" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:6">
       <x:c r="A276" s="1" t="s">
-        <x:v>678</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="B276" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C276" s="1" t="s">
-        <x:v>679</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="F276" s="1" t="s">
-        <x:v>680</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:6">
       <x:c r="A277" s="1" t="s">
-        <x:v>681</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="B277" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C277" s="1" t="s">
-        <x:v>682</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="F277" s="1" t="s">
-        <x:v>683</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:6">
       <x:c r="A278" s="1" t="s">
-        <x:v>684</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="B278" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C278" s="1" t="s">
-        <x:v>685</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="F278" s="1" t="s">
-        <x:v>680</x:v>
+        <x:v>691</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:6">
       <x:c r="A279" s="1" t="s">
-        <x:v>686</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="B279" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C279" s="1" t="s">
-        <x:v>687</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="F279" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>694</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:6">
       <x:c r="A280" s="1" t="s">
-        <x:v>688</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="B280" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C280" s="1" t="s">
-        <x:v>689</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="F280" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>691</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:6">
       <x:c r="A281" s="1" t="s">
-        <x:v>690</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="B281" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C281" s="1" t="s">
-        <x:v>691</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="F281" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:6">
       <x:c r="A282" s="1" t="s">
-        <x:v>692</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="B282" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C282" s="1" t="s">
-        <x:v>693</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="F282" s="1" t="s">
-        <x:v>694</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:6">
       <x:c r="A283" s="1" t="s">
-        <x:v>695</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="B283" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C283" s="1" t="s">
-        <x:v>696</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="F283" s="1" t="s">
-        <x:v>697</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:6">
       <x:c r="A284" s="1" t="s">
-        <x:v>698</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="B284" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C284" s="1" t="s">
-        <x:v>699</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="F284" s="1" t="s">
-        <x:v>694</x:v>
+        <x:v>705</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:6">
       <x:c r="A285" s="1" t="s">
-        <x:v>700</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="B285" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C285" s="1" t="s">
-        <x:v>701</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="F285" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>708</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:6">
       <x:c r="A286" s="1" t="s">
-        <x:v>702</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="B286" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C286" s="1" t="s">
-        <x:v>703</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="F286" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>705</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:6">
       <x:c r="A287" s="1" t="s">
-        <x:v>704</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="B287" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C287" s="1" t="s">
-        <x:v>705</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F287" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:6">
       <x:c r="A288" s="1" t="s">
-        <x:v>706</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="B288" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C288" s="1" t="s">
-        <x:v>707</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F288" s="1" t="s">
-        <x:v>708</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:6">
       <x:c r="A289" s="1" t="s">
-        <x:v>709</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="B289" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C289" s="1" t="s">
-        <x:v>710</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="F289" s="1" t="s">
-        <x:v>711</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:6">
       <x:c r="A290" s="1" t="s">
-        <x:v>712</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="B290" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C290" s="1" t="s">
-        <x:v>713</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="F290" s="1" t="s">
-        <x:v>708</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:6">
       <x:c r="A291" s="1" t="s">
-        <x:v>714</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="B291" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C291" s="1" t="s">
-        <x:v>715</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="F291" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>722</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:6">
       <x:c r="A292" s="1" t="s">
-        <x:v>716</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="B292" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C292" s="1" t="s">
-        <x:v>717</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="F292" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:6">
       <x:c r="A293" s="1" t="s">
-        <x:v>718</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B293" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C293" s="1" t="s">
-        <x:v>719</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="F293" s="1" t="s">
-        <x:v>720</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:6">
       <x:c r="A294" s="1" t="s">
-        <x:v>721</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="B294" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C294" s="1" t="s">
-        <x:v>722</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="F294" s="1" t="s">
-        <x:v>723</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:6">
       <x:c r="A295" s="1" t="s">
-        <x:v>724</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="B295" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C295" s="1" t="s">
-        <x:v>725</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="F295" s="1" t="s">
-        <x:v>720</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:6">
       <x:c r="A296" s="1" t="s">
-        <x:v>726</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="B296" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C296" s="1" t="s">
-        <x:v>727</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="F296" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>733</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:6">
       <x:c r="A297" s="1" t="s">
-        <x:v>728</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="B297" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C297" s="1" t="s">
-        <x:v>729</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="F297" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>736</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:6">
       <x:c r="A298" s="1" t="s">
-        <x:v>730</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B298" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C298" s="1" t="s">
-        <x:v>731</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="F298" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>733</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:6">
       <x:c r="A299" s="1" t="s">
-        <x:v>732</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="B299" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C299" s="1" t="s">
-        <x:v>733</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="F299" s="1" t="s">
-        <x:v>734</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:6">
       <x:c r="A300" s="1" t="s">
-        <x:v>735</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="B300" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C300" s="1" t="s">
-        <x:v>736</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="F300" s="1" t="s">
-        <x:v>737</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:6">
       <x:c r="A301" s="1" t="s">
-        <x:v>738</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="B301" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C301" s="1" t="s">
-        <x:v>739</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="F301" s="1" t="s">
-        <x:v>734</x:v>
+        <x:v>745</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:6">
       <x:c r="A302" s="1" t="s">
-        <x:v>740</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B302" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C302" s="1" t="s">
-        <x:v>741</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="F302" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>748</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:6">
       <x:c r="A303" s="1" t="s">
-        <x:v>742</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="B303" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C303" s="1" t="s">
-        <x:v>743</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="F303" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>745</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:6">
       <x:c r="A304" s="1" t="s">
-        <x:v>744</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="B304" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C304" s="1" t="s">
-        <x:v>745</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="F304" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:6">
       <x:c r="A305" s="1" t="s">
-        <x:v>746</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="B305" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C305" s="1" t="s">
-        <x:v>747</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="F305" s="1" t="s">
-        <x:v>748</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:6">
       <x:c r="A306" s="1" t="s">
-        <x:v>749</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="B306" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C306" s="1" t="s">
-        <x:v>750</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="F306" s="1" t="s">
-        <x:v>751</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:6">
       <x:c r="A307" s="1" t="s">
-        <x:v>752</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="B307" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C307" s="1" t="s">
-        <x:v>753</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="F307" s="1" t="s">
-        <x:v>748</x:v>
+        <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:6">
       <x:c r="A308" s="1" t="s">
-        <x:v>754</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="B308" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C308" s="1" t="s">
-        <x:v>755</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="F308" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>762</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:6">
       <x:c r="A309" s="1" t="s">
-        <x:v>756</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="B309" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C309" s="1" t="s">
-        <x:v>757</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="F309" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:6">
       <x:c r="A310" s="1" t="s">
-        <x:v>758</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="B310" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C310" s="1" t="s">
-        <x:v>759</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="F310" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:6">
       <x:c r="A311" s="1" t="s">
-        <x:v>760</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="B311" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C311" s="1" t="s">
-        <x:v>761</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="F311" s="1" t="s">
-        <x:v>762</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:6">
       <x:c r="A312" s="1" t="s">
-        <x:v>763</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="B312" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C312" s="1" t="s">
-        <x:v>764</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="F312" s="1" t="s">
-        <x:v>765</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:6">
       <x:c r="A313" s="1" t="s">
-        <x:v>766</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="B313" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C313" s="1" t="s">
-        <x:v>767</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="F313" s="1" t="s">
-        <x:v>762</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:6">
       <x:c r="A314" s="1" t="s">
-        <x:v>768</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="B314" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C314" s="1" t="s">
-        <x:v>769</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="F314" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:6">
       <x:c r="A315" s="1" t="s">
-        <x:v>770</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="B315" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C315" s="1" t="s">
-        <x:v>771</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="F315" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:6">
       <x:c r="A316" s="1" t="s">
-        <x:v>772</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="B316" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C316" s="1" t="s">
-        <x:v>773</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="F316" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:6">
       <x:c r="A317" s="1" t="s">
-        <x:v>774</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B317" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C317" s="1" t="s">
-        <x:v>775</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="F317" s="1" t="s">
-        <x:v>776</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:6">
       <x:c r="A318" s="1" t="s">
-        <x:v>777</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="B318" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C318" s="1" t="s">
-        <x:v>778</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="F318" s="1" t="s">
-        <x:v>779</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:6">
       <x:c r="A319" s="1" t="s">
-        <x:v>780</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="B319" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C319" s="1" t="s">
-        <x:v>781</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="F319" s="1" t="s">
-        <x:v>776</x:v>
+        <x:v>787</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:6">
       <x:c r="A320" s="1" t="s">
-        <x:v>782</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="B320" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C320" s="1" t="s">
-        <x:v>783</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="F320" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>790</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:6">
       <x:c r="A321" s="1" t="s">
-        <x:v>784</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="B321" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C321" s="1" t="s">
-        <x:v>785</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="F321" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>787</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:6">
       <x:c r="A322" s="1" t="s">
-        <x:v>786</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="B322" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C322" s="1" t="s">
-        <x:v>787</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="F322" s="1" t="s">
-        <x:v>788</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:6">
       <x:c r="A323" s="1" t="s">
-        <x:v>789</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="B323" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C323" s="1" t="s">
-        <x:v>790</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="F323" s="1" t="s">
-        <x:v>791</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:6">
       <x:c r="A324" s="1" t="s">
-        <x:v>792</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="B324" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C324" s="1" t="s">
-        <x:v>793</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="F324" s="1" t="s">
-        <x:v>788</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:6">
       <x:c r="A325" s="1" t="s">
-        <x:v>794</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B325" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C325" s="1" t="s">
-        <x:v>795</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="F325" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>801</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:6">
       <x:c r="A326" s="1" t="s">
-        <x:v>796</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="B326" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C326" s="1" t="s">
-        <x:v>797</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="F326" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>804</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:6">
       <x:c r="A327" s="1" t="s">
-        <x:v>798</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="B327" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C327" s="1" t="s">
-        <x:v>799</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="F327" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>801</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:6">
       <x:c r="A328" s="1" t="s">
-        <x:v>800</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="B328" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C328" s="1" t="s">
-        <x:v>801</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="F328" s="1" t="s">
-        <x:v>802</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:6">
       <x:c r="A329" s="1" t="s">
-        <x:v>803</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="B329" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C329" s="1" t="s">
-        <x:v>804</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="F329" s="1" t="s">
-        <x:v>805</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:6">
       <x:c r="A330" s="1" t="s">
-        <x:v>806</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="B330" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C330" s="1" t="s">
-        <x:v>807</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="F330" s="1" t="s">
-        <x:v>802</x:v>
+        <x:v>813</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:6">
       <x:c r="A331" s="1" t="s">
-        <x:v>808</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="B331" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C331" s="1" t="s">
-        <x:v>809</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="F331" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>816</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:6">
       <x:c r="A332" s="1" t="s">
-        <x:v>810</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="B332" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C332" s="1" t="s">
-        <x:v>811</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="F332" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>813</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:6">
       <x:c r="A333" s="1" t="s">
-        <x:v>812</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="B333" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C333" s="1" t="s">
-        <x:v>813</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="F333" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:6">
       <x:c r="A334" s="1" t="s">
-        <x:v>814</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="B334" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C334" s="1" t="s">
-        <x:v>815</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="F334" s="1" t="s">
-        <x:v>816</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:6">
       <x:c r="A335" s="1" t="s">
-        <x:v>817</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="B335" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C335" s="1" t="s">
-        <x:v>818</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="F335" s="1" t="s">
-        <x:v>819</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="336" spans="1:6">
       <x:c r="A336" s="1" t="s">
-        <x:v>820</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="B336" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C336" s="1" t="s">
-        <x:v>821</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="F336" s="1" t="s">
-        <x:v>816</x:v>
+        <x:v>827</x:v>
       </x:c>
     </x:row>
     <x:row r="337" spans="1:6">
       <x:c r="A337" s="1" t="s">
-        <x:v>822</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="B337" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C337" s="1" t="s">
-        <x:v>823</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="F337" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>830</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:6">
       <x:c r="A338" s="1" t="s">
-        <x:v>824</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="B338" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C338" s="1" t="s">
-        <x:v>825</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="F338" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>827</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:6">
       <x:c r="A339" s="1" t="s">
-        <x:v>826</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="B339" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C339" s="1" t="s">
-        <x:v>827</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="F339" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:6">
       <x:c r="A340" s="1" t="s">
-        <x:v>828</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="B340" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C340" s="1" t="s">
-        <x:v>829</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="F340" s="1" t="s">
-        <x:v>830</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:6">
       <x:c r="A341" s="1" t="s">
-        <x:v>831</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B341" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C341" s="1" t="s">
-        <x:v>832</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="F341" s="1" t="s">
-        <x:v>833</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:6">
       <x:c r="A342" s="1" t="s">
-        <x:v>834</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="B342" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C342" s="1" t="s">
-        <x:v>835</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="F342" s="1" t="s">
-        <x:v>830</x:v>
+        <x:v>841</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:6">
       <x:c r="A343" s="1" t="s">
-        <x:v>836</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="B343" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C343" s="1" t="s">
-        <x:v>837</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="F343" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>844</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:6">
       <x:c r="A344" s="1" t="s">
-        <x:v>838</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="B344" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C344" s="1" t="s">
-        <x:v>839</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="F344" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>841</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:6">
       <x:c r="A345" s="1" t="s">
-        <x:v>840</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="B345" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C345" s="1" t="s">
-        <x:v>841</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="F345" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="1:6">
       <x:c r="A346" s="1" t="s">
-        <x:v>842</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="B346" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C346" s="1" t="s">
-        <x:v>843</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="F346" s="1" t="s">
-        <x:v>844</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:6">
       <x:c r="A347" s="1" t="s">
-        <x:v>845</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="B347" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C347" s="1" t="s">
-        <x:v>846</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="F347" s="1" t="s">
-        <x:v>847</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:6">
       <x:c r="A348" s="1" t="s">
-        <x:v>848</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="B348" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C348" s="1" t="s">
-        <x:v>849</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="F348" s="1" t="s">
-        <x:v>850</x:v>
+        <x:v>855</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:6">
       <x:c r="A349" s="1" t="s">
-        <x:v>851</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="B349" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C349" s="1" t="s">
-        <x:v>852</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="F349" s="1" t="s">
-        <x:v>853</x:v>
+        <x:v>858</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:6">
       <x:c r="A350" s="1" t="s">
-        <x:v>854</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="B350" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C350" s="1" t="s">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="F350" s="1" t="s">
         <x:v>855</x:v>
-      </x:c>
-      <x:c r="F350" s="1" t="s">
-        <x:v>856</x:v>
       </x:c>
     </x:row>
     <x:row r="351" spans="1:6">
       <x:c r="A351" s="1" t="s">
-        <x:v>857</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="B351" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C351" s="1" t="s">
-        <x:v>858</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="F351" s="1" t="s">
-        <x:v>859</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="352" spans="1:6">
       <x:c r="A352" s="1" t="s">
-        <x:v>860</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="B352" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C352" s="1" t="s">
-        <x:v>861</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="F352" s="1" t="s">
-        <x:v>862</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="353" spans="1:6">
       <x:c r="A353" s="1" t="s">
-        <x:v>863</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="B353" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C353" s="1" t="s">
-        <x:v>864</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="F353" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="354" spans="1:6">
       <x:c r="A354" s="1" t="s">
-        <x:v>865</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="B354" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C354" s="1" t="s">
-        <x:v>866</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="F354" s="1" t="s">
-        <x:v>867</x:v>
+        <x:v>869</x:v>
       </x:c>
     </x:row>
     <x:row r="355" spans="1:6">
       <x:c r="A355" s="1" t="s">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="B355" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C355" s="1" t="s">
-        <x:v>869</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="F355" s="1" t="s">
-        <x:v>870</x:v>
+        <x:v>872</x:v>
       </x:c>
     </x:row>
     <x:row r="356" spans="1:6">
       <x:c r="A356" s="1" t="s">
-        <x:v>871</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="B356" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C356" s="1" t="s">
-        <x:v>872</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="F356" s="1" t="s">
-        <x:v>873</x:v>
+        <x:v>875</x:v>
       </x:c>
     </x:row>
     <x:row r="357" spans="1:6">
       <x:c r="A357" s="1" t="s">
-        <x:v>874</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="B357" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C357" s="1" t="s">
-        <x:v>875</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="F357" s="1" t="s">
-        <x:v>850</x:v>
+        <x:v>878</x:v>
       </x:c>
     </x:row>
     <x:row r="358" spans="1:6">
       <x:c r="A358" s="1" t="s">
-        <x:v>876</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="B358" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C358" s="1" t="s">
-        <x:v>877</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="F358" s="1" t="s">
-        <x:v>853</x:v>
+        <x:v>881</x:v>
       </x:c>
     </x:row>
     <x:row r="359" spans="1:6">
       <x:c r="A359" s="1" t="s">
-        <x:v>878</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="B359" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C359" s="1" t="s">
-        <x:v>879</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="F359" s="1" t="s">
-        <x:v>856</x:v>
+        <x:v>884</x:v>
       </x:c>
     </x:row>
     <x:row r="360" spans="1:6">
       <x:c r="A360" s="1" t="s">
-        <x:v>880</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="B360" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C360" s="1" t="s">
-        <x:v>881</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="F360" s="1" t="s">
-        <x:v>882</x:v>
+        <x:v>887</x:v>
       </x:c>
     </x:row>
     <x:row r="361" spans="1:6">
       <x:c r="A361" s="1" t="s">
-        <x:v>883</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="B361" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C361" s="1" t="s">
-        <x:v>884</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="F361" s="1" t="s">
-        <x:v>885</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="362" spans="1:6">
       <x:c r="A362" s="1" t="s">
-        <x:v>886</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="B362" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C362" s="1" t="s">
-        <x:v>887</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="F362" s="1" t="s">
-        <x:v>888</x:v>
+        <x:v>892</x:v>
       </x:c>
     </x:row>
     <x:row r="363" spans="1:6">
       <x:c r="A363" s="1" t="s">
-        <x:v>889</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="B363" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C363" s="1" t="s">
-        <x:v>890</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="F363" s="1" t="s">
-        <x:v>850</x:v>
+        <x:v>895</x:v>
       </x:c>
     </x:row>
     <x:row r="364" spans="1:6">
       <x:c r="A364" s="1" t="s">
-        <x:v>891</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="B364" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C364" s="1" t="s">
-        <x:v>892</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="F364" s="1" t="s">
-        <x:v>893</x:v>
+        <x:v>898</x:v>
       </x:c>
     </x:row>
     <x:row r="365" spans="1:6">
       <x:c r="A365" s="1" t="s">
-        <x:v>894</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="B365" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C365" s="1" t="s">
-        <x:v>895</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="F365" s="1" t="s">
-        <x:v>896</x:v>
+        <x:v>875</x:v>
       </x:c>
     </x:row>
     <x:row r="366" spans="1:6">
       <x:c r="A366" s="1" t="s">
-        <x:v>897</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="B366" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C366" s="1" t="s">
-        <x:v>898</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="F366" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>878</x:v>
       </x:c>
     </x:row>
     <x:row r="367" spans="1:6">
       <x:c r="A367" s="1" t="s">
-        <x:v>899</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="B367" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C367" s="1" t="s">
-        <x:v>900</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="F367" s="1" t="s">
-        <x:v>901</x:v>
+        <x:v>881</x:v>
       </x:c>
     </x:row>
     <x:row r="368" spans="1:6">
       <x:c r="A368" s="1" t="s">
-        <x:v>902</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="B368" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C368" s="1" t="s">
-        <x:v>903</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="F368" s="1" t="s">
-        <x:v>867</x:v>
+        <x:v>907</x:v>
       </x:c>
     </x:row>
     <x:row r="369" spans="1:6">
       <x:c r="A369" s="1" t="s">
-        <x:v>904</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B369" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C369" s="1" t="s">
-        <x:v>905</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="F369" s="1" t="s">
-        <x:v>906</x:v>
+        <x:v>910</x:v>
       </x:c>
     </x:row>
     <x:row r="370" spans="1:6">
       <x:c r="A370" s="1" t="s">
-        <x:v>907</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="B370" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C370" s="1" t="s">
-        <x:v>908</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="F370" s="1" t="s">
-        <x:v>909</x:v>
+        <x:v>913</x:v>
       </x:c>
     </x:row>
     <x:row r="371" spans="1:6">
       <x:c r="A371" s="1" t="s">
-        <x:v>910</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="B371" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C371" s="1" t="s">
-        <x:v>911</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="F371" s="1" t="s">
-        <x:v>912</x:v>
+        <x:v>875</x:v>
       </x:c>
     </x:row>
     <x:row r="372" spans="1:6">
       <x:c r="A372" s="1" t="s">
-        <x:v>913</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="B372" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C372" s="1" t="s">
-        <x:v>914</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="F372" s="1" t="s">
-        <x:v>915</x:v>
+        <x:v>918</x:v>
       </x:c>
     </x:row>
     <x:row r="373" spans="1:6">
       <x:c r="A373" s="1" t="s">
-        <x:v>916</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="B373" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C373" s="1" t="s">
-        <x:v>917</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="F373" s="1" t="s">
-        <x:v>918</x:v>
+        <x:v>921</x:v>
       </x:c>
     </x:row>
     <x:row r="374" spans="1:6">
       <x:c r="A374" s="1" t="s">
-        <x:v>919</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="B374" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C374" s="1" t="s">
-        <x:v>920</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="F374" s="1" t="s">
-        <x:v>921</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="375" spans="1:6">
       <x:c r="A375" s="1" t="s">
-        <x:v>922</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="B375" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C375" s="1" t="s">
-        <x:v>923</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="F375" s="1" t="s">
-        <x:v>924</x:v>
+        <x:v>926</x:v>
       </x:c>
     </x:row>
     <x:row r="376" spans="1:6">
       <x:c r="A376" s="1" t="s">
-        <x:v>925</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="B376" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C376" s="1" t="s">
-        <x:v>926</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="F376" s="1" t="s">
-        <x:v>927</x:v>
+        <x:v>892</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="377" spans="1:6">
+      <x:c r="A377" s="1" t="s">
+        <x:v>929</x:v>
+      </x:c>
+      <x:c r="B377" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C377" s="1" t="s">
+        <x:v>930</x:v>
+      </x:c>
+      <x:c r="F377" s="1" t="s">
+        <x:v>931</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="378" spans="1:6">
+      <x:c r="A378" s="1" t="s">
+        <x:v>932</x:v>
+      </x:c>
+      <x:c r="B378" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C378" s="1" t="s">
+        <x:v>933</x:v>
+      </x:c>
+      <x:c r="F378" s="1" t="s">
+        <x:v>934</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="379" spans="1:6">
+      <x:c r="A379" s="1" t="s">
+        <x:v>935</x:v>
+      </x:c>
+      <x:c r="B379" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C379" s="1" t="s">
+        <x:v>936</x:v>
+      </x:c>
+      <x:c r="F379" s="1" t="s">
+        <x:v>937</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="380" spans="1:6">
+      <x:c r="A380" s="1" t="s">
+        <x:v>938</x:v>
+      </x:c>
+      <x:c r="B380" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C380" s="1" t="s">
+        <x:v>939</x:v>
+      </x:c>
+      <x:c r="F380" s="1" t="s">
+        <x:v>940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="381" spans="1:6">
+      <x:c r="A381" s="1" t="s">
+        <x:v>941</x:v>
+      </x:c>
+      <x:c r="B381" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C381" s="1" t="s">
+        <x:v>942</x:v>
+      </x:c>
+      <x:c r="F381" s="1" t="s">
+        <x:v>943</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="382" spans="1:6">
+      <x:c r="A382" s="1" t="s">
+        <x:v>944</x:v>
+      </x:c>
+      <x:c r="B382" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C382" s="1" t="s">
+        <x:v>945</x:v>
+      </x:c>
+      <x:c r="F382" s="1" t="s">
+        <x:v>946</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="383" spans="1:6">
+      <x:c r="A383" s="1" t="s">
+        <x:v>947</x:v>
+      </x:c>
+      <x:c r="B383" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C383" s="1" t="s">
+        <x:v>948</x:v>
+      </x:c>
+      <x:c r="F383" s="1" t="s">
+        <x:v>949</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="384" spans="1:6">
+      <x:c r="A384" s="1" t="s">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="B384" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C384" s="1" t="s">
+        <x:v>951</x:v>
+      </x:c>
+      <x:c r="F384" s="1" t="s">
+        <x:v>952</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="385" spans="1:6">
+      <x:c r="A385" s="1" t="s">
+        <x:v>953</x:v>
+      </x:c>
+      <x:c r="B385" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C385" s="1" t="s">
+        <x:v>954</x:v>
+      </x:c>
+      <x:c r="F385" s="1" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
